--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2344447.905521464</v>
+        <v>2342112.794319484</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.01507352285621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>56.91750123718866</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.2022482902402</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>30.11518326737036</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>251.371748928835</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>160.7679129414086</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>80.45521946244367</v>
+        <v>122.1528448013251</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>246.1620375835772</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.1811194850564</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.9921868125025</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.168913835719746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>80.5641289012158</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695618</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.9393756113377</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>102.1557845699827</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>110.9396563989398</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>231.5189384225748</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458359</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>238.1282460566153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844887598</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>231.6225549516116</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.3849150459375</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.9322284908386</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>12.96996784159906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141719</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977395</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>161.017508575551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171909</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763416</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161675</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>511.6829242757557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>153.4172256690052</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161675</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744482</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943244</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.354406119406</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2431.537139951703</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2546.853055059249</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.8067472977393</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1618.060010690417</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1421.431262850278</v>
       </c>
       <c r="T4" t="n">
-        <v>1606.026743036749</v>
+        <v>1198.452782045013</v>
       </c>
       <c r="U4" t="n">
-        <v>1316.908405540587</v>
+        <v>909.3344445488509</v>
       </c>
       <c r="V4" t="n">
-        <v>1062.2239173347</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="W4" t="n">
-        <v>772.8067472977393</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="X4" t="n">
-        <v>772.8067472977393</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="Y4" t="n">
-        <v>772.8067472977393</v>
+        <v>654.6499563429641</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1842.294639468327</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345445</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532449</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532449</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532449</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.894479532449</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.894479532449</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1452.594815143166</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T7" t="n">
-        <v>1452.594815143166</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U7" t="n">
-        <v>1163.476477647004</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V7" t="n">
-        <v>1163.476477647004</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W7" t="n">
-        <v>1163.476477647004</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.476477647004</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2235.550262878909</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1866.587745938497</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139988</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878909</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2235.550262878909</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1072.290353850337</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>782.8731838133765</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>782.8731838133765</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.0806046698464</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2298.539471851637</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2298.539471851637</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>139.2347658407925</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239597</v>
+        <v>634.5603720565515</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718121</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239599</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K31" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1743.498903791709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1488.814415585822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1199.397245548862</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>228.9331431646413</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358619</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355936</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438164</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E37" t="n">
-        <v>264.0500279773693</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N39" t="n">
         <v>1731.250242493492</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7634,28 +7634,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192275</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.58048154589974</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>255.8421700460949</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-3.296918293926865e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>140.4465591824926</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>100.4621571004288</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.89260457059956</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228616</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>20.61870490125321</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944536</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>48.39475227997571</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401612</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.56191943763258</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>5.199738306157315</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910987</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948067</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>126.7126101431573</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448719</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228619</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351662</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351661</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>815075.8712351663</v>
+        <v>815075.8712351664</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815075.8712351664</v>
+        <v>815075.8712351663</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.223048447078327e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.666388946422108e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309561</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.25639174426</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744224</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744088</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744146</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744197</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744266</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.2563917443</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26494,16 +26494,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727430.3655945346</v>
+        <v>-727430.3655945349</v>
       </c>
       <c r="C6" t="n">
-        <v>387321.4179813848</v>
+        <v>387321.4179813851</v>
       </c>
       <c r="D6" t="n">
-        <v>227305.9552333852</v>
+        <v>227305.9552333856</v>
       </c>
       <c r="E6" t="n">
-        <v>170097.7017444979</v>
+        <v>170062.963819062</v>
       </c>
       <c r="F6" t="n">
-        <v>495510.1635518525</v>
+        <v>495475.425626417</v>
       </c>
       <c r="G6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.425626417</v>
       </c>
       <c r="H6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.4256264167</v>
       </c>
       <c r="I6" t="n">
-        <v>495510.1635518527</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="J6" t="n">
-        <v>327904.9857418702</v>
+        <v>327870.247816435</v>
       </c>
       <c r="K6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.4256264173</v>
       </c>
       <c r="L6" t="n">
-        <v>447216.193543662</v>
+        <v>447181.4556182268</v>
       </c>
       <c r="M6" t="n">
-        <v>410455.1356163409</v>
+        <v>410420.3976909054</v>
       </c>
       <c r="N6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.4256264172</v>
       </c>
       <c r="O6" t="n">
-        <v>495510.1635518529</v>
+        <v>495475.4256264174</v>
       </c>
       <c r="P6" t="n">
-        <v>495510.163551853</v>
+        <v>495475.4256264174</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.907373778955227e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>364.9152965494056</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.3204374188649</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>83.35532412933341</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>190.6335127298416</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>113.9011428421725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>45.89027203882515</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>114.2072408992938</v>
+        <v>72.50961556041241</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>108.5210040371057</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934126</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>190.1454565113255</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-8.067812573819705e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814836</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>451.92700289245</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32634,31 +32634,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
         <v>0.1345549672467222</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352316</v>
       </c>
       <c r="N24" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32871,31 +32871,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
         <v>0.1345549672467222</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,31 +33026,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M27" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157981</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33108,31 +33108,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935905</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33345,31 +33345,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U31" t="n">
         <v>0.1345549672467222</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>261.5336801130326</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.275766055038</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33582,31 +33582,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
         <v>0.1345549672467222</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663251</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>232.153703594057</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33819,31 +33819,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
         <v>0.1345549672467222</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>404.0195168876577</v>
       </c>
       <c r="M39" t="n">
-        <v>661.8411144019726</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34056,31 +34056,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175647</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082898</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>718.58326820083</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>508.7132618620068</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>15.64270034434984</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>505.5216991696271</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243133</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712465</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>320.5852908091167</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132133</v>
       </c>
       <c r="N24" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M27" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>122.3296324324648</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306617</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715722</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O30" t="n">
-        <v>226.582746865555</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>134.6960534463659</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717047</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396388</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203872</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>265.4651371077836</v>
       </c>
       <c r="M39" t="n">
-        <v>519.7070804799544</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937584</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>342.5164587638454</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631402</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>587.2415561174968</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
